--- a/dbInittool/excels/Meal.xlsx
+++ b/dbInittool/excels/Meal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\Reader\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C1738-2DE2-4444-AC71-A3C4DBD0DFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB375F5-CC8C-42AE-BDAC-832C633D3517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="-6435" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>pass/to/excel.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>recipeId</t>
+  </si>
+  <si>
+    <t>mealStatusId</t>
+  </si>
+  <si>
+    <t>pass2Photo</t>
+  </si>
+  <si>
+    <t>badgeId</t>
+  </si>
+  <si>
+    <t>meal/pass/to/excel.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recipeId</t>
-  </si>
-  <si>
-    <t>badthId</t>
-  </si>
-  <si>
-    <t>mealStatusId</t>
-  </si>
-  <si>
-    <t>pass2Photo</t>
+    <t>pass2</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -381,16 +385,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -398,13 +402,27 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Meal.xlsx
+++ b/dbInittool/excels/Meal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB375F5-CC8C-42AE-BDAC-832C633D3517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8889FE28-A3E9-4BD5-80AB-96B95C91EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>recipeId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>mealStatusId</t>
   </si>
@@ -369,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -383,46 +380,37 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Meal.xlsx
+++ b/dbInittool/excels/Meal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8889FE28-A3E9-4BD5-80AB-96B95C91EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7341B50-8251-4A2F-BEAA-3D3F9D3ACF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>mealStatusId</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>pass2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name meal1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name meal2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -366,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -380,7 +392,7 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -390,8 +402,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -401,8 +416,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -411,6 +429,9 @@
       </c>
       <c r="C3" t="s">
         <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Meal.xlsx
+++ b/dbInittool/excels/Meal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7341B50-8251-4A2F-BEAA-3D3F9D3ACF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7551A4-74AE-4B65-9343-AEBC5EFAB42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>mealStatusId</t>
   </si>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>name meal2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curry.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレーライス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -434,6 +442,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/Meal.xlsx
+++ b/dbInittool/excels/Meal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7551A4-74AE-4B65-9343-AEBC5EFAB42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDC51C-61D7-430D-84A2-C1A72C745C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>mealStatusId</t>
   </si>
@@ -36,31 +36,126 @@
     <t>badgeId</t>
   </si>
   <si>
-    <t>meal/pass/to/excel.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pass2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name meal1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name meal2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curry.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレーライス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guratan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyoza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>餃子</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>korokke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロッケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miso</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味噌汁</t>
+    <rPh sb="0" eb="3">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oden</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おでん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pasta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>piza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ponchi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツポンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ramen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラーメン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鮭</t>
+    <rPh sb="0" eb="1">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tkg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵かけごはん</t>
+    <rPh sb="0" eb="1">
+      <t>タマゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unagi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うな重</t>
+    <rPh sb="2" eb="3">
+      <t>ジュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -411,21 +506,21 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -433,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -444,7 +539,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -454,6 +549,143 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Meal.xlsx
+++ b/dbInittool/excels/Meal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDC51C-61D7-430D-84A2-C1A72C745C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26322422-ABC6-4E06-BB35-D576DA0CF6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>mealStatusId</t>
   </si>
@@ -156,6 +156,18 @@
     <rPh sb="2" eb="3">
       <t>ジュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uncurry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unponchi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unramen</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -688,6 +700,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
